--- a/weatherrankfilter.xlsx
+++ b/weatherrankfilter.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61890DB1-A446-486F-8968-0EB2E5053496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D26C77-AA85-4928-A4F0-CABD3FF57AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherDT%10" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="WeatherSVM%10" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="ace svm recur 75" sheetId="7" r:id="rId3"/>
     <sheet name="ace svm recur 20%" sheetId="8" r:id="rId4"/>
-    <sheet name="weatherSVM%15" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="weatherDT%15" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="ace svm eps 75 percentile" sheetId="9" r:id="rId5"/>
+    <sheet name="ace svm esp 20%" sheetId="10" r:id="rId6"/>
+    <sheet name="weatherSVM%15" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="weatherDT%15" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId9"/>
+    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="37">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -94,6 +96,66 @@
   <si>
     <t>iter=10</t>
   </si>
+  <si>
+    <t>ACE epsilon=0.001</t>
+  </si>
+  <si>
+    <t>1 label col : 2 classes : high , low</t>
+  </si>
+  <si>
+    <t>air_pressure_9am</t>
+  </si>
+  <si>
+    <t>air_temp_9am</t>
+  </si>
+  <si>
+    <t>avg_wind_direction_9am</t>
+  </si>
+  <si>
+    <t>avg_wind_speed_9am</t>
+  </si>
+  <si>
+    <t>max_wind_direction_9am</t>
+  </si>
+  <si>
+    <t>max_wind_speed_9am</t>
+  </si>
+  <si>
+    <t>rain_accumulation_9am</t>
+  </si>
+  <si>
+    <t>rain_duration_9am</t>
+  </si>
+  <si>
+    <t>relative_humidity_9am</t>
+  </si>
+  <si>
+    <t>relative_humidity_3pm</t>
+  </si>
+  <si>
+    <t>Dataset: Train: 9X745, Test : 9X319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 features </t>
+  </si>
+  <si>
+    <t>Cor %</t>
+  </si>
+  <si>
+    <t>Rank1</t>
+  </si>
+  <si>
+    <t>Org file</t>
+  </si>
+  <si>
+    <t>Misclassification error</t>
+  </si>
+  <si>
+    <t>% Misclassification error reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rank1 </t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +231,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -362,11 +442,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -405,6 +534,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5262,6 +5429,3890 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E44AA6-5C29-4F1A-90A3-F2DA20FD2287}">
+  <dimension ref="A1:AD100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>8</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="H3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <f>SUM(C3,C13,C23,C43,C53,C63,C73,C83,C93)/10</f>
+        <v>19.4984328</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:U10" si="0">SUM(D3,D13,D23,D43,D53,D63,D73,D83,D93)/10</f>
+        <v>19.4984328</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>19.4984328</v>
+      </c>
+      <c r="U3">
+        <f>SUM(K3,K13,K23,K43,K53,K63,K73,K83,K93)/10</f>
+        <v>19.4984328</v>
+      </c>
+      <c r="W3">
+        <f>$U3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:AD10" si="1">$U3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="E4" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F4" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="G4" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="H4" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:M10" si="2">SUM(C4,C14,C24,C44,C54,C64,C74,C84,C94)/10</f>
+        <v>19.843260199999996</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>19.937303999999997</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>19.905956099999997</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>20.000000100000001</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>20.031348099999995</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>19.968651999999999</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>19.811912199999998</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>20.031347999999998</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>19.6865205</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:X10" si="3">$U4-M4</f>
+        <v>-0.15673969999999571</v>
+      </c>
+      <c r="X4">
+        <f>$U4-N4</f>
+        <v>-0.25078349999999716</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>-0.21943559999999707</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>-0.31347960000000086</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>-0.34482759999999502</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>-0.28213149999999843</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>-0.125391699999998</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="1"/>
+        <v>-0.3448274999999974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="E5" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="J5" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="K5" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>5</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="2"/>
+        <v>20.7836991</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>21.065830699999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>21.003134899999999</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>20.877742999999999</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>21.097178899999999</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>20.877742999999999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>20.846395100000002</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>20.971786700000003</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>20.438871599999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>-0.34482750000000095</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="3"/>
+        <v>-0.62695910000000055</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>-0.56426330000000036</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>-0.43887140000000002</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>-0.65830730000000059</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>-0.43887140000000002</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>-0.40752350000000348</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>-0.53291510000000386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="G6" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="I6" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="J6" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="K6" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="2"/>
+        <v>22.225705300000001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>22.068965600000006</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>22.351097200000002</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>22.2884013</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>22.257053300000003</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>22.131661300000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>23.260188100000001</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>22.507837000000002</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>21.253918500000005</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>-0.97178679999999673</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="3"/>
+        <v>-0.81504710000000102</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>-1.0971786999999971</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>-1.0344827999999957</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>-1.003134799999998</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>-0.87774279999999649</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>-2.006269599999996</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>-1.2539184999999975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="G7" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="I7" s="4">
+        <v>26.332287999999998</v>
+      </c>
+      <c r="J7" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="K7" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="L7" s="7">
+        <v>20</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="2"/>
+        <v>25.736677199999995</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>24.796238300000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>24.858934299999998</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>25.3918496</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>24.545454700000001</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>25.329153699999999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>27.335423299999995</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>26.300940600000001</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>23.416927900000001</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>-2.3197492999999945</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>-1.3793104000000014</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>-1.4420063999999968</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>-1.9749216999999994</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>-1.1285267999999995</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>-1.9122257999999981</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>-3.9184953999999941</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>-2.8840126999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="D8" s="4">
+        <v>31.661442000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31.661442000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="J8" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="L8" s="7">
+        <v>30</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
+        <v>28.463950000000001</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>28.620689699999996</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>27.3667713</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>26.802507699999996</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>26.865203700000002</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>28.181818099999997</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>29.749216099999995</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>28.338557999999999</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>25.109718000000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>-3.3542319999999997</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>-3.5109716999999954</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>-2.257053299999999</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>-1.6927896999999952</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>-1.7554857000000013</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>-3.0721000999999966</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>-4.6394980999999937</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>-3.2288399999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>34.169279000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>35.423197000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="I9" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="J9" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="L9" s="7">
+        <v>40</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="2"/>
+        <v>33.385579899999996</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>34.670846399999995</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>35.297805599999997</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>31.880877899999994</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>32.225705399999995</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>32.100313499999999</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>33.761755699999995</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>33.228840099999999</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>27.993730499999998</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>-5.3918493999999981</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>-6.6771158999999969</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>-7.3040750999999986</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>-3.8871473999999964</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>-4.2319748999999973</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>-4.1065830000000005</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>-5.7680251999999967</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="1"/>
+        <v>-5.2351096000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15" thickBot="1">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>59.874608000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>57.680250999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>57.680250999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>41.065831000000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>57.680250999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>59.247649000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <v>38.244514000000002</v>
+      </c>
+      <c r="J10" s="4">
+        <v>64.263323</v>
+      </c>
+      <c r="K10" s="4">
+        <v>69.592476000000005</v>
+      </c>
+      <c r="L10" s="7">
+        <v>50</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>43.76175529999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>43.103448200000003</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>42.601880900000005</v>
+      </c>
+      <c r="P10">
+        <f>SUM(F10,F20,F30,F50,F60,F70,F80,F90,F100)/10</f>
+        <v>43.793103399999993</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>43.981191299999992</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>45.235109800000004</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>45.642633200000006</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>45.956112900000008</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>46.645768099999998</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>2.8840128000000078</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>3.5423198999999954</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>4.0438871999999932</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>2.8526647000000054</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>2.6645768000000061</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>1.4106582999999944</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>1.0031348999999921</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>0.68965519999999003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <f>SUM(W3:W8)/6</f>
+        <v>-1.191222549999998</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:AD12" si="4">SUM(X3:X8)/6</f>
+        <v>-1.0971786333333327</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>-0.92998954999999839</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>-0.90909086666666516</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>-0.81504703333333239</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="4"/>
+        <v>-1.0971785999999983</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>-1.8495297166666642</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>-1.3740856333333327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="I13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>21.943574000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="G14" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="H14" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>21.943574000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="E15" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="H15" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I15" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="J15" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>22.884012999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="I16" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="K16" s="4">
+        <v>24.451411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="I17" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="J17" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="K17" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>29.467085000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="G18" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H18" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="I18" s="4">
+        <v>35.736677</v>
+      </c>
+      <c r="J18" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="K18" s="4">
+        <v>26.018809000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42.319749000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42.633229</v>
+      </c>
+      <c r="F19" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="G19" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="H19" s="4">
+        <v>36.677115999999998</v>
+      </c>
+      <c r="I19" s="4">
+        <v>39.498432999999999</v>
+      </c>
+      <c r="J19" s="4">
+        <v>43.260187999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>32.915360999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4">
+        <v>58.307209999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>56.426332000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>45.768025000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>58.934168999999997</v>
+      </c>
+      <c r="G20" s="4">
+        <v>59.247649000000003</v>
+      </c>
+      <c r="H20" s="4">
+        <v>40.125391999999998</v>
+      </c>
+      <c r="I20" s="4">
+        <v>59.874608000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>62.382444999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>67.711599000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="F23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="I23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="I24" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="K24" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="E25" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F25" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="G25" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="K25" s="4">
+        <v>22.570533000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="D26" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="E26" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F26" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="G26" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="H26" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="I26" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="J26" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <v>22.257052999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="E27" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="F27" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="G27" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="H27" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="I27" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="K27" s="4">
+        <v>25.705328999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="D28" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="E28" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="F28" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="G28" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="H28" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="I28" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="J28" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>27.899687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>36.990595999999996</v>
+      </c>
+      <c r="E29" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="F29" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="G29" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="H29" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="I29" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="J29" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="K29" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4">
+        <v>40.125391999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41.379309999999997</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41.692790000000002</v>
+      </c>
+      <c r="F30" s="4">
+        <v>36.363636</v>
+      </c>
+      <c r="G30" s="4">
+        <v>39.498432999999999</v>
+      </c>
+      <c r="H30" s="4">
+        <v>41.065831000000003</v>
+      </c>
+      <c r="I30" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="J30" s="4">
+        <v>38.557994000000001</v>
+      </c>
+      <c r="K30" s="4">
+        <v>32.601880999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="D33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="E33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="G33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="H33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="J33" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="K33" s="4">
+        <v>23.197492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="H34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="I34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="J34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="K34" s="4">
+        <v>23.510971999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="D35" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="E35" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="F35" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="G35" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="H35" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="I35" s="4">
+        <v>26.332287999999998</v>
+      </c>
+      <c r="J35" s="4">
+        <v>25.391850000000002</v>
+      </c>
+      <c r="K35" s="4">
+        <v>25.07837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="D36" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="E36" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="F36" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="G36" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="H36" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="I36" s="4">
+        <v>29.467085000000001</v>
+      </c>
+      <c r="J36" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="K36" s="4">
+        <v>27.586207000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <v>20</v>
+      </c>
+      <c r="C37" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="D37" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="E37" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="F37" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="G37" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="H37" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="I37" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="J37" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="K37" s="4">
+        <v>26.018809000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="D38" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="E38" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="F38" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="G38" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H38" s="4">
+        <v>31.661442000000001</v>
+      </c>
+      <c r="I38" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="J38" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="K38" s="4">
+        <v>29.467085000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4">
+        <v>36.990595999999996</v>
+      </c>
+      <c r="D39" s="4">
+        <v>39.184953</v>
+      </c>
+      <c r="E39" s="4">
+        <v>37.931033999999997</v>
+      </c>
+      <c r="F39" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="G39" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="H39" s="4">
+        <v>38.244514000000002</v>
+      </c>
+      <c r="I39" s="4">
+        <v>37.931033999999997</v>
+      </c>
+      <c r="J39" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="K39" s="4">
+        <v>34.482759000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>56.112853000000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43.260187999999999</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43.887146999999999</v>
+      </c>
+      <c r="F40" s="4">
+        <v>42.319749000000002</v>
+      </c>
+      <c r="G40" s="4">
+        <v>42.319749000000002</v>
+      </c>
+      <c r="H40" s="4">
+        <v>54.231974999999998</v>
+      </c>
+      <c r="I40" s="4">
+        <v>54.858933999999998</v>
+      </c>
+      <c r="J40" s="4">
+        <v>41.379309999999997</v>
+      </c>
+      <c r="K40" s="4">
+        <v>34.796238000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <v>8</v>
+      </c>
+      <c r="K42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="E43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="H43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="I43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="J43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="K43" s="4">
+        <v>23.510971999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="D44" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="E44" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="F44" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="G44" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="H44" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="I44" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="J44" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="K44" s="4">
+        <v>23.510971999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="D45" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="E45" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="F45" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="G45" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="H45" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="I45" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="J45" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="K45" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="D46" s="4">
+        <v>26.645768</v>
+      </c>
+      <c r="E46" s="4">
+        <v>26.645768</v>
+      </c>
+      <c r="F46" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="G46" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="H46" s="4">
+        <v>26.332287999999998</v>
+      </c>
+      <c r="I46" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="J46" s="4">
+        <v>26.332287999999998</v>
+      </c>
+      <c r="K46" s="4">
+        <v>24.764890000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>20</v>
+      </c>
+      <c r="C47" s="4">
+        <v>31.661442000000001</v>
+      </c>
+      <c r="D47" s="4">
+        <v>31.347961999999999</v>
+      </c>
+      <c r="E47" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="G47" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="H47" s="4">
+        <v>31.974921999999999</v>
+      </c>
+      <c r="I47" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="J47" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="K47" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="D48" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="E48" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="F48" s="4">
+        <v>34.169279000000003</v>
+      </c>
+      <c r="G48" s="4">
+        <v>34.796238000000002</v>
+      </c>
+      <c r="H48" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="I48" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="J48" s="4">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="K48" s="4">
+        <v>31.034483000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>40.438870999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <v>39.184953</v>
+      </c>
+      <c r="E49" s="4">
+        <v>40.438870999999999</v>
+      </c>
+      <c r="F49" s="4">
+        <v>36.990595999999996</v>
+      </c>
+      <c r="G49" s="4">
+        <v>36.677115999999998</v>
+      </c>
+      <c r="H49" s="4">
+        <v>38.244514000000002</v>
+      </c>
+      <c r="I49" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="J49" s="4">
+        <v>38.871473000000002</v>
+      </c>
+      <c r="K49" s="4">
+        <v>30.721003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44.200626999999997</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45.768025000000002</v>
+      </c>
+      <c r="E50" s="4">
+        <v>46.394984000000001</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45.141066000000002</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45.454545000000003</v>
+      </c>
+      <c r="H50" s="4">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="I50" s="4">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="J50" s="4">
+        <v>39.184953</v>
+      </c>
+      <c r="K50" s="4">
+        <v>36.990595999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="H52" s="2">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2">
+        <v>7</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8</v>
+      </c>
+      <c r="K52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="3">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="E53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="G53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="H53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="I53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="J53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="K53" s="4">
+        <v>19.122257000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="E54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="F54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="G54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="H54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="I54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="J54" s="4">
+        <v>19.122257000000001</v>
+      </c>
+      <c r="K54" s="4">
+        <v>18.808776999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="D55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="E55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="I55" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="J55" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="K55" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10</v>
+      </c>
+      <c r="C56" s="4">
+        <v>21.316614000000001</v>
+      </c>
+      <c r="D56" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="E56" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="F56" s="4">
+        <v>21.316614000000001</v>
+      </c>
+      <c r="G56" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="H56" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I56" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="J56" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="K56" s="4">
+        <v>20.689654999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="D57" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="E57" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="F57" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="G57" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="H57" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="I57" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="J57" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="K57" s="4">
+        <v>25.07837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="D58" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="E58" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="F58" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="G58" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="H58" s="4">
+        <v>31.347961999999999</v>
+      </c>
+      <c r="I58" s="4">
+        <v>31.347961999999999</v>
+      </c>
+      <c r="J58" s="4">
+        <v>33.542319999999997</v>
+      </c>
+      <c r="K58" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4">
+        <v>35.423197000000002</v>
+      </c>
+      <c r="D59" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="E59" s="4">
+        <v>36.363636</v>
+      </c>
+      <c r="F59" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="G59" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="H59" s="4">
+        <v>34.796238000000002</v>
+      </c>
+      <c r="I59" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="J59" s="4">
+        <v>40.752350999999997</v>
+      </c>
+      <c r="K59" s="4">
+        <v>29.780563999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="D60" s="4">
+        <v>40.438870999999999</v>
+      </c>
+      <c r="E60" s="4">
+        <v>37.931033999999997</v>
+      </c>
+      <c r="F60" s="4">
+        <v>62.382444999999997</v>
+      </c>
+      <c r="G60" s="4">
+        <v>59.874608000000002</v>
+      </c>
+      <c r="H60" s="4">
+        <v>56.426332000000002</v>
+      </c>
+      <c r="I60" s="4">
+        <v>39.811912</v>
+      </c>
+      <c r="J60" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="K60" s="4">
+        <v>65.203761999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7</v>
+      </c>
+      <c r="J62" s="2">
+        <v>8</v>
+      </c>
+      <c r="K62" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="D63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="E63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="F63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="G63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="H63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="I63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="J63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="K63" s="4">
+        <v>20.062695999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="3">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>2</v>
+      </c>
+      <c r="C64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="D64" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="E64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="F64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H64" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="I64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="J64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="K64" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="D65" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="E65" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F65" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="G65" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="H65" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="I65" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="J65" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="K65" s="4">
+        <v>22.257052999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="3">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="D66" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="E66" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F66" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="G66" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="H66" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I66" s="4">
+        <v>26.645768</v>
+      </c>
+      <c r="J66" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="K66" s="4">
+        <v>22.884012999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4">
+        <v>26.645768</v>
+      </c>
+      <c r="D67" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="E67" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="F67" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="G67" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="H67" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="I67" s="4">
+        <v>31.974921999999999</v>
+      </c>
+      <c r="J67" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="K67" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4">
+        <v>30.407523999999999</v>
+      </c>
+      <c r="D68" s="4">
+        <v>33.542319999999997</v>
+      </c>
+      <c r="E68" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="F68" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="G68" s="4">
+        <v>31.661442000000001</v>
+      </c>
+      <c r="H68" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="I68" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="J68" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="K68" s="4">
+        <v>29.780563999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="4">
+        <v>40</v>
+      </c>
+      <c r="C69" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="E69" s="4">
+        <v>37.617555000000003</v>
+      </c>
+      <c r="F69" s="4">
+        <v>34.796238000000002</v>
+      </c>
+      <c r="G69" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="H69" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="I69" s="4">
+        <v>39.498432999999999</v>
+      </c>
+      <c r="J69" s="4">
+        <v>32.915360999999997</v>
+      </c>
+      <c r="K69" s="4">
+        <v>30.407523999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="3">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4">
+        <v>41.379309999999997</v>
+      </c>
+      <c r="D70" s="4">
+        <v>52.037618000000002</v>
+      </c>
+      <c r="E70" s="4">
+        <v>42.633229</v>
+      </c>
+      <c r="F70" s="4">
+        <v>53.605015999999999</v>
+      </c>
+      <c r="G70" s="4">
+        <v>60.815047</v>
+      </c>
+      <c r="H70" s="4">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="I70" s="4">
+        <v>62.695925000000003</v>
+      </c>
+      <c r="J70" s="4">
+        <v>60.815047</v>
+      </c>
+      <c r="K70" s="4">
+        <v>61.128526999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2">
+        <v>6</v>
+      </c>
+      <c r="I72" s="2">
+        <v>7</v>
+      </c>
+      <c r="J72" s="2">
+        <v>8</v>
+      </c>
+      <c r="K72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="D73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="E73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="F73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="G73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="H73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="I73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="J73" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="K73" s="4">
+        <v>19.435737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="D74" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="E74" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="F74" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G74" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H74" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="I74" s="4">
+        <v>19.749216000000001</v>
+      </c>
+      <c r="J74" s="4">
+        <v>19.749216000000001</v>
+      </c>
+      <c r="K74" s="4">
+        <v>19.749216000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4">
+        <v>5</v>
+      </c>
+      <c r="C75" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="E75" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="F75" s="4">
+        <v>19.749216000000001</v>
+      </c>
+      <c r="G75" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H75" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="I75" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="J75" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="K75" s="4">
+        <v>19.749216000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="3">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10</v>
+      </c>
+      <c r="C76" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="D76" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="E76" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="F76" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="G76" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="H76" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="I76" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="J76" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="K76" s="4">
+        <v>22.570533000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="3">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="D77" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="E77" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="F77" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="G77" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="H77" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="I77" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="J77" s="4">
+        <v>26.959247999999999</v>
+      </c>
+      <c r="K77" s="4">
+        <v>24.764890000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4">
+        <v>30</v>
+      </c>
+      <c r="C78" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="D78" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="E78" s="4">
+        <v>26.018809000000001</v>
+      </c>
+      <c r="F78" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="G78" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="H78" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="I78" s="4">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="J78" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="K78" s="4">
+        <v>25.07837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="4">
+        <v>40</v>
+      </c>
+      <c r="C79" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="D79" s="4">
+        <v>37.304074999999997</v>
+      </c>
+      <c r="E79" s="4">
+        <v>38.244514000000002</v>
+      </c>
+      <c r="F79" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="G79" s="4">
+        <v>33.542319999999997</v>
+      </c>
+      <c r="H79" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="I79" s="4">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="J79" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="K79" s="4">
+        <v>29.467085000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="3">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
+        <v>50</v>
+      </c>
+      <c r="C80" s="4">
+        <v>56.426332000000002</v>
+      </c>
+      <c r="D80" s="4">
+        <v>41.692790000000002</v>
+      </c>
+      <c r="E80" s="4">
+        <v>41.692790000000002</v>
+      </c>
+      <c r="F80" s="4">
+        <v>57.993729999999999</v>
+      </c>
+      <c r="G80" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="H80" s="4">
+        <v>37.931033999999997</v>
+      </c>
+      <c r="I80" s="4">
+        <v>65.517240999999999</v>
+      </c>
+      <c r="J80" s="4">
+        <v>59.874608000000002</v>
+      </c>
+      <c r="K80" s="4">
+        <v>30.094044</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
+        <v>5</v>
+      </c>
+      <c r="H82" s="2">
+        <v>6</v>
+      </c>
+      <c r="I82" s="2">
+        <v>7</v>
+      </c>
+      <c r="J82" s="2">
+        <v>8</v>
+      </c>
+      <c r="K82" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="3">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="D83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="E83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="F83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="G83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="H83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="I83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="J83" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="K83" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="D84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="E84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="F84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="G84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="H84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="I84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="J84" s="4">
+        <v>28.840125</v>
+      </c>
+      <c r="K84" s="4">
+        <v>28.840125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5</v>
+      </c>
+      <c r="C85" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="D85" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="E85" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="F85" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="G85" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="H85" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="I85" s="4">
+        <v>29.467085000000001</v>
+      </c>
+      <c r="J85" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="K85" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10</v>
+      </c>
+      <c r="C86" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="D86" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="E86" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="F86" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="G86" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="H86" s="4">
+        <v>29.780563999999998</v>
+      </c>
+      <c r="I86" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="J86" s="4">
+        <v>30.721003</v>
+      </c>
+      <c r="K86" s="4">
+        <v>28.526646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+      <c r="C87" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="D87" s="4">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="E87" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="F87" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="G87" s="4">
+        <v>31.974921999999999</v>
+      </c>
+      <c r="H87" s="4">
+        <v>31.347961999999999</v>
+      </c>
+      <c r="I87" s="4">
+        <v>33.228839999999998</v>
+      </c>
+      <c r="J87" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="K87" s="4">
+        <v>31.034483000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4">
+        <v>30</v>
+      </c>
+      <c r="C88" s="4">
+        <v>36.050156999999999</v>
+      </c>
+      <c r="D88" s="4">
+        <v>33.542319999999997</v>
+      </c>
+      <c r="E88" s="4">
+        <v>33.542319999999997</v>
+      </c>
+      <c r="F88" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="G88" s="4">
+        <v>32.601880999999999</v>
+      </c>
+      <c r="H88" s="4">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="I88" s="4">
+        <v>37.931033999999997</v>
+      </c>
+      <c r="J88" s="4">
+        <v>35.736677</v>
+      </c>
+      <c r="K88" s="4">
+        <v>30.407523999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="3">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4">
+        <v>40</v>
+      </c>
+      <c r="C89" s="4">
+        <v>43.573667999999998</v>
+      </c>
+      <c r="D89" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43.573667999999998</v>
+      </c>
+      <c r="F89" s="4">
+        <v>41.692790000000002</v>
+      </c>
+      <c r="G89" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="H89" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="I89" s="4">
+        <v>43.573667999999998</v>
+      </c>
+      <c r="J89" s="4">
+        <v>43.573667999999998</v>
+      </c>
+      <c r="K89" s="4">
+        <v>36.677115999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="3">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>50</v>
+      </c>
+      <c r="C90" s="4">
+        <v>47.962381999999998</v>
+      </c>
+      <c r="D90" s="4">
+        <v>42.946708000000001</v>
+      </c>
+      <c r="E90" s="4">
+        <v>59.561129000000001</v>
+      </c>
+      <c r="F90" s="4">
+        <v>42.319749000000002</v>
+      </c>
+      <c r="G90" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="H90" s="4">
+        <v>41.692790000000002</v>
+      </c>
+      <c r="I90" s="4">
+        <v>42.006270000000001</v>
+      </c>
+      <c r="J90" s="4">
+        <v>43.260187999999999</v>
+      </c>
+      <c r="K90" s="4">
+        <v>37.931033999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+      <c r="H92" s="2">
+        <v>6</v>
+      </c>
+      <c r="I92" s="2">
+        <v>7</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8</v>
+      </c>
+      <c r="K92" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="3">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="D93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="E93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="F93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="G93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="H93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="I93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="J93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="K93" s="4">
+        <v>20.062695999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="D94" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="E94" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="F94" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="G94" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="H94" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="I94" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="J94" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="K94" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="D95" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="E95" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="F95" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="G95" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="H95" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="I95" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="J95" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="K95" s="4">
+        <v>20.376176000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="D96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="E96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="F96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="G96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="H96" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="I96" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="J96" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="K96" s="4">
+        <v>22.570533000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="3">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="D97" s="4">
+        <v>27.272727</v>
+      </c>
+      <c r="E97" s="4">
+        <v>28.526646</v>
+      </c>
+      <c r="F97" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="G97" s="4">
+        <v>27.899687</v>
+      </c>
+      <c r="H97" s="4">
+        <v>28.213166000000001</v>
+      </c>
+      <c r="I97" s="4">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="J97" s="4">
+        <v>31.974921999999999</v>
+      </c>
+      <c r="K97" s="4">
+        <v>26.959247999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4">
+        <v>30</v>
+      </c>
+      <c r="C98" s="4">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="D98" s="4">
+        <v>32.288401</v>
+      </c>
+      <c r="E98" s="4">
+        <v>24.137930999999998</v>
+      </c>
+      <c r="F98" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="G98" s="4">
+        <v>24.764890000000001</v>
+      </c>
+      <c r="H98" s="4">
+        <v>29.153604999999999</v>
+      </c>
+      <c r="I98" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="J98" s="4">
+        <v>30.094044</v>
+      </c>
+      <c r="K98" s="4">
+        <v>24.764890000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="3">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>40</v>
+      </c>
+      <c r="C99" s="4">
+        <v>36.363636</v>
+      </c>
+      <c r="D99" s="4">
+        <v>40.752350999999997</v>
+      </c>
+      <c r="E99" s="4">
+        <v>40.752350999999997</v>
+      </c>
+      <c r="F99" s="4">
+        <v>38.557994000000001</v>
+      </c>
+      <c r="G99" s="4">
+        <v>39.811912</v>
+      </c>
+      <c r="H99" s="4">
+        <v>36.363636</v>
+      </c>
+      <c r="I99" s="4">
+        <v>35.109718000000001</v>
+      </c>
+      <c r="J99" s="4">
+        <v>33.855798999999998</v>
+      </c>
+      <c r="K99" s="4">
+        <v>30.721003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="4">
+        <v>50</v>
+      </c>
+      <c r="C100" s="4">
+        <v>55.485892999999997</v>
+      </c>
+      <c r="D100" s="4">
+        <v>52.664577000000001</v>
+      </c>
+      <c r="E100" s="4">
+        <v>52.664577000000001</v>
+      </c>
+      <c r="F100" s="4">
+        <v>40.125391999999998</v>
+      </c>
+      <c r="G100" s="4">
+        <v>40.125391999999998</v>
+      </c>
+      <c r="H100" s="4">
+        <v>62.695925000000003</v>
+      </c>
+      <c r="I100" s="4">
+        <v>55.485892999999997</v>
+      </c>
+      <c r="J100" s="4">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="K100" s="4">
+        <v>65.203761999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T10">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
+      <formula>$U3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:T3">
+    <cfRule type="top10" dxfId="8" priority="10" bottom="1" rank="1"/>
+    <cfRule type="expression" priority="11">
+      <formula>"min"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:T10">
+    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:T5">
+    <cfRule type="top10" dxfId="6" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:T6">
+    <cfRule type="top10" dxfId="5" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:T7">
+    <cfRule type="top10" dxfId="4" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:T8">
+    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:T9">
+    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:T10">
+    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:AD12">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC67412-3321-418E-8816-08EBF12F1F38}">
   <dimension ref="A1:AD100"/>
@@ -9913,8 +13964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1468490-DC8F-4C75-92D7-15FBE6C3A7E0}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10272,6 +14323,914 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1F0CBD-D1B0-400D-897D-9514C8E0A4CD}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19.749216000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <f>SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30)/10</f>
+        <v>21.724137899999999</v>
+      </c>
+      <c r="H3" s="20">
+        <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
+        <v>23.824451400000001</v>
+      </c>
+      <c r="I3" s="21">
+        <f>(H3-G3)/H3*100</f>
+        <v>8.815789563154441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20.062695999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="D9" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19.749216000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.884012999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>24.451411</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25.391850000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="D18" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>24.764890000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>25.07837</v>
+      </c>
+      <c r="D27" s="4">
+        <v>27.272727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>20.689654999999998</v>
+      </c>
+      <c r="D30" s="4">
+        <v>20.689654999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3621EF-E6D7-4422-BCDC-46A7BA1937AD}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="30.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.257052999999999</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <f>SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30)/10</f>
+        <v>21.974921800000004</v>
+      </c>
+      <c r="H3" s="20">
+        <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
+        <v>23.824451400000001</v>
+      </c>
+      <c r="I3" s="21">
+        <f>(H3-G3)/H3*100</f>
+        <v>7.7631571403150827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>21.003135</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23.197492</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>21.630094</v>
+      </c>
+      <c r="D9" s="4">
+        <v>23.510971999999999</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19.435737</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.884012999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>23.824451</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25.391850000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>21.943574000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>22.570533000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>24.764890000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>22.884012999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <v>24.137930999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>25.705328999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>27.272727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>20.376176000000001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>20.689654999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547C15B9-C662-4504-BA56-E8C86CAA384B}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -14155,7 +19114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95622268-A8C7-446E-8932-1CC7623DB454}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -18039,7 +22998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765A0386-4415-4EA4-8432-46269E7FD37D}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -21921,3888 +26880,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E44AA6-5C29-4F1A-90A3-F2DA20FD2287}">
-  <dimension ref="A1:AD100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>3</v>
-      </c>
-      <c r="P2" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>6</v>
-      </c>
-      <c r="S2" s="6">
-        <v>7</v>
-      </c>
-      <c r="T2" s="6">
-        <v>8</v>
-      </c>
-      <c r="W2" s="6">
-        <v>1</v>
-      </c>
-      <c r="X2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="D3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="G3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="H3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="I3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="J3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <f>SUM(C3,C13,C23,C43,C53,C63,C73,C83,C93)/10</f>
-        <v>19.4984328</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:U10" si="0">SUM(D3,D13,D23,D43,D53,D63,D73,D83,D93)/10</f>
-        <v>19.4984328</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>19.4984328</v>
-      </c>
-      <c r="U3">
-        <f>SUM(K3,K13,K23,K43,K53,K63,K73,K83,K93)/10</f>
-        <v>19.4984328</v>
-      </c>
-      <c r="W3">
-        <f>$U3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:AD10" si="1">$U3-N3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="E4" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="F4" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="G4" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="H4" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="J4" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="K4" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="8">
-        <f t="shared" ref="M4:M10" si="2">SUM(C4,C14,C24,C44,C54,C64,C74,C84,C94)/10</f>
-        <v>19.843260199999996</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>19.937303999999997</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>19.905956099999997</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>20.000000100000001</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>20.031348099999995</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>19.968651999999999</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>19.811912199999998</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>20.031347999999998</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>19.6865205</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:X10" si="3">$U4-M4</f>
-        <v>-0.15673969999999571</v>
-      </c>
-      <c r="X4">
-        <f>$U4-N4</f>
-        <v>-0.25078349999999716</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="1"/>
-        <v>-0.21943559999999707</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>-0.31347960000000086</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="1"/>
-        <v>-0.34482759999999502</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="1"/>
-        <v>-0.28213149999999843</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="1"/>
-        <v>-0.125391699999998</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="1"/>
-        <v>-0.3448274999999974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="E5" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="F5" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="G5" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="H5" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="I5" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="J5" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="K5" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="L5" s="7">
-        <v>5</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" si="2"/>
-        <v>20.7836991</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>21.065830699999999</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>21.003134899999999</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>20.877742999999999</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>21.097178899999999</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>20.877742999999999</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>20.846395100000002</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>20.971786700000003</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>20.438871599999999</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="3"/>
-        <v>-0.34482750000000095</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="3"/>
-        <v>-0.62695910000000055</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>-0.56426330000000036</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>-0.43887140000000002</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="1"/>
-        <v>-0.65830730000000059</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>-0.43887140000000002</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="1"/>
-        <v>-0.40752350000000348</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="1"/>
-        <v>-0.53291510000000386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="G6" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="H6" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="I6" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="J6" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="K6" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="L6" s="7">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" si="2"/>
-        <v>22.225705300000001</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>22.068965600000006</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>22.351097200000002</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>22.2884013</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>22.257053300000003</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>22.131661300000001</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>23.260188100000001</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>22.507837000000002</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>21.253918500000005</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="3"/>
-        <v>-0.97178679999999673</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="3"/>
-        <v>-0.81504710000000102</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="1"/>
-        <v>-1.0971786999999971</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="1"/>
-        <v>-1.0344827999999957</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="1"/>
-        <v>-1.003134799999998</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>-0.87774279999999649</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>-2.006269599999996</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>-1.2539184999999975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="E7" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="G7" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="H7" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="I7" s="4">
-        <v>26.332287999999998</v>
-      </c>
-      <c r="J7" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="K7" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="L7" s="7">
-        <v>20</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="2"/>
-        <v>25.736677199999995</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>24.796238300000002</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>24.858934299999998</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>25.3918496</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>24.545454700000001</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>25.329153699999999</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>27.335423299999995</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>26.300940600000001</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>23.416927900000001</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="3"/>
-        <v>-2.3197492999999945</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="3"/>
-        <v>-1.3793104000000014</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>-1.4420063999999968</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>-1.9749216999999994</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>-1.1285267999999995</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>-1.9122257999999981</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>-3.9184953999999941</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="1"/>
-        <v>-2.8840126999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="D8" s="4">
-        <v>31.661442000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>31.661442000000001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="H8" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="I8" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="J8" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="K8" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="L8" s="7">
-        <v>30</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="2"/>
-        <v>28.463950000000001</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>28.620689699999996</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>27.3667713</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>26.802507699999996</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>26.865203700000002</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>28.181818099999997</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>29.749216099999995</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>28.338557999999999</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>25.109718000000001</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
-        <v>-3.3542319999999997</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="3"/>
-        <v>-3.5109716999999954</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>-2.257053299999999</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="1"/>
-        <v>-1.6927896999999952</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="1"/>
-        <v>-1.7554857000000013</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="1"/>
-        <v>-3.0721000999999966</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="1"/>
-        <v>-4.6394980999999937</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="1"/>
-        <v>-3.2288399999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4">
-        <v>34.169279000000003</v>
-      </c>
-      <c r="D9" s="4">
-        <v>35.423197000000002</v>
-      </c>
-      <c r="E9" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="F9" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="G9" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="H9" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="I9" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="J9" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="L9" s="7">
-        <v>40</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" si="2"/>
-        <v>33.385579899999996</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>34.670846399999995</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>35.297805599999997</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>31.880877899999994</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>32.225705399999995</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>32.100313499999999</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>33.761755699999995</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>33.228840099999999</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>27.993730499999998</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>-5.3918493999999981</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="3"/>
-        <v>-6.6771158999999969</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>-7.3040750999999986</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="1"/>
-        <v>-3.8871473999999964</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="1"/>
-        <v>-4.2319748999999973</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="1"/>
-        <v>-4.1065830000000005</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="1"/>
-        <v>-5.7680251999999967</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="1"/>
-        <v>-5.2351096000000013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4">
-        <v>59.874608000000002</v>
-      </c>
-      <c r="D10" s="4">
-        <v>57.680250999999998</v>
-      </c>
-      <c r="E10" s="4">
-        <v>57.680250999999998</v>
-      </c>
-      <c r="F10" s="4">
-        <v>41.065831000000003</v>
-      </c>
-      <c r="G10" s="4">
-        <v>57.680250999999998</v>
-      </c>
-      <c r="H10" s="4">
-        <v>59.247649000000003</v>
-      </c>
-      <c r="I10" s="4">
-        <v>38.244514000000002</v>
-      </c>
-      <c r="J10" s="4">
-        <v>64.263323</v>
-      </c>
-      <c r="K10" s="4">
-        <v>69.592476000000005</v>
-      </c>
-      <c r="L10" s="7">
-        <v>50</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="2"/>
-        <v>43.76175529999999</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>43.103448200000003</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>42.601880900000005</v>
-      </c>
-      <c r="P10">
-        <f>SUM(F10,F20,F30,F50,F60,F70,F80,F90,F100)/10</f>
-        <v>43.793103399999993</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>43.981191299999992</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>45.235109800000004</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>45.642633200000006</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>45.956112900000008</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>46.645768099999998</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
-        <v>2.8840128000000078</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="3"/>
-        <v>3.5423198999999954</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>4.0438871999999932</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="1"/>
-        <v>2.8526647000000054</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="1"/>
-        <v>2.6645768000000061</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="1"/>
-        <v>1.4106582999999944</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>1.0031348999999921</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0.68965519999999003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>8</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9</v>
-      </c>
-      <c r="W12">
-        <f>SUM(W3:W8)/6</f>
-        <v>-1.191222549999998</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ref="X12:AD12" si="4">SUM(X3:X8)/6</f>
-        <v>-1.0971786333333327</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>-0.92998954999999839</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="4"/>
-        <v>-0.90909086666666516</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>-0.81504703333333239</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="4"/>
-        <v>-1.0971785999999983</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="4"/>
-        <v>-1.8495297166666642</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="4"/>
-        <v>-1.3740856333333327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="D13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="E13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="F13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="G13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="H13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="I13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="J13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="K13" s="4">
-        <v>21.943574000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>21.630094</v>
-      </c>
-      <c r="G14" s="4">
-        <v>21.630094</v>
-      </c>
-      <c r="H14" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="J14" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="K14" s="4">
-        <v>21.943574000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="D15" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="E15" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="H15" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I15" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="J15" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>22.884012999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="D16" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="F16" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="G16" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="H16" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="I16" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="J16" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="K16" s="4">
-        <v>24.451411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="D17" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="E17" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="H17" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="I17" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="J17" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="K17" s="4">
-        <v>24.137930999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>29.467085000000001</v>
-      </c>
-      <c r="E18" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="F18" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="G18" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="H18" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="I18" s="4">
-        <v>35.736677</v>
-      </c>
-      <c r="J18" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="K18" s="4">
-        <v>26.018809000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42.319749000000002</v>
-      </c>
-      <c r="E19" s="4">
-        <v>42.633229</v>
-      </c>
-      <c r="F19" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="G19" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="H19" s="4">
-        <v>36.677115999999998</v>
-      </c>
-      <c r="I19" s="4">
-        <v>39.498432999999999</v>
-      </c>
-      <c r="J19" s="4">
-        <v>43.260187999999999</v>
-      </c>
-      <c r="K19" s="4">
-        <v>32.915360999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4">
-        <v>58.307209999999998</v>
-      </c>
-      <c r="D20" s="4">
-        <v>56.426332000000002</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45.768025000000002</v>
-      </c>
-      <c r="F20" s="4">
-        <v>58.934168999999997</v>
-      </c>
-      <c r="G20" s="4">
-        <v>59.247649000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <v>40.125391999999998</v>
-      </c>
-      <c r="I20" s="4">
-        <v>59.874608000000002</v>
-      </c>
-      <c r="J20" s="4">
-        <v>62.382444999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <v>67.711599000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2">
-        <v>7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>8</v>
-      </c>
-      <c r="K22" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="F23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="I23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="J23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="K23" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="F24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="I24" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="J24" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="K24" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="E25" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="F25" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="G25" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="H25" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I25" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="J25" s="4">
-        <v>21.630094</v>
-      </c>
-      <c r="K25" s="4">
-        <v>22.570533000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="D26" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="E26" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="F26" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="G26" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="H26" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="I26" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="J26" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="K26" s="4">
-        <v>22.257052999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="3">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="D27" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="E27" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="F27" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="G27" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="H27" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="I27" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="J27" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="K27" s="4">
-        <v>25.705328999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="4">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="D28" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="E28" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="F28" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="G28" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="H28" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="I28" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="J28" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="K28" s="4">
-        <v>27.899687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <v>36.990595999999996</v>
-      </c>
-      <c r="E29" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="F29" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="G29" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="H29" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="I29" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="J29" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="K29" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4">
-        <v>40.125391999999998</v>
-      </c>
-      <c r="D30" s="4">
-        <v>41.379309999999997</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41.692790000000002</v>
-      </c>
-      <c r="F30" s="4">
-        <v>36.363636</v>
-      </c>
-      <c r="G30" s="4">
-        <v>39.498432999999999</v>
-      </c>
-      <c r="H30" s="4">
-        <v>41.065831000000003</v>
-      </c>
-      <c r="I30" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="J30" s="4">
-        <v>38.557994000000001</v>
-      </c>
-      <c r="K30" s="4">
-        <v>32.601880999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-      <c r="H32" s="2">
-        <v>6</v>
-      </c>
-      <c r="I32" s="2">
-        <v>7</v>
-      </c>
-      <c r="J32" s="2">
-        <v>8</v>
-      </c>
-      <c r="K32" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="D33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="E33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="F33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="G33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="H33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="J33" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="K33" s="4">
-        <v>23.197492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="D34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="E34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="F34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="G34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="H34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="J34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="K34" s="4">
-        <v>23.510971999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="D35" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="E35" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="F35" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="G35" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="H35" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="I35" s="4">
-        <v>26.332287999999998</v>
-      </c>
-      <c r="J35" s="4">
-        <v>25.391850000000002</v>
-      </c>
-      <c r="K35" s="4">
-        <v>25.07837</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="D36" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="E36" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="F36" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="G36" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="H36" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="I36" s="4">
-        <v>29.467085000000001</v>
-      </c>
-      <c r="J36" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="K36" s="4">
-        <v>27.586207000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="D37" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="E37" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="F37" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="G37" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="H37" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="I37" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="J37" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="K37" s="4">
-        <v>26.018809000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="D38" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="E38" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="F38" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="G38" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="H38" s="4">
-        <v>31.661442000000001</v>
-      </c>
-      <c r="I38" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="J38" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="K38" s="4">
-        <v>29.467085000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4">
-        <v>36.990595999999996</v>
-      </c>
-      <c r="D39" s="4">
-        <v>39.184953</v>
-      </c>
-      <c r="E39" s="4">
-        <v>37.931033999999997</v>
-      </c>
-      <c r="F39" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="G39" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="H39" s="4">
-        <v>38.244514000000002</v>
-      </c>
-      <c r="I39" s="4">
-        <v>37.931033999999997</v>
-      </c>
-      <c r="J39" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="K39" s="4">
-        <v>34.482759000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="3">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
-        <v>56.112853000000001</v>
-      </c>
-      <c r="D40" s="4">
-        <v>43.260187999999999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>43.887146999999999</v>
-      </c>
-      <c r="F40" s="4">
-        <v>42.319749000000002</v>
-      </c>
-      <c r="G40" s="4">
-        <v>42.319749000000002</v>
-      </c>
-      <c r="H40" s="4">
-        <v>54.231974999999998</v>
-      </c>
-      <c r="I40" s="4">
-        <v>54.858933999999998</v>
-      </c>
-      <c r="J40" s="4">
-        <v>41.379309999999997</v>
-      </c>
-      <c r="K40" s="4">
-        <v>34.796238000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2">
-        <v>8</v>
-      </c>
-      <c r="K42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="D43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="E43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="F43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="G43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="H43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="I43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="J43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="K43" s="4">
-        <v>23.510971999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="4">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="D44" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="E44" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="F44" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="G44" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="H44" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="I44" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="J44" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="K44" s="4">
-        <v>23.510971999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3">
-        <v>2</v>
-      </c>
-      <c r="B45" s="4">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="D45" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="E45" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="F45" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="G45" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="H45" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="I45" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="J45" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="K45" s="4">
-        <v>24.137930999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3">
-        <v>3</v>
-      </c>
-      <c r="B46" s="4">
-        <v>10</v>
-      </c>
-      <c r="C46" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="D46" s="4">
-        <v>26.645768</v>
-      </c>
-      <c r="E46" s="4">
-        <v>26.645768</v>
-      </c>
-      <c r="F46" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="G46" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="H46" s="4">
-        <v>26.332287999999998</v>
-      </c>
-      <c r="I46" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="J46" s="4">
-        <v>26.332287999999998</v>
-      </c>
-      <c r="K46" s="4">
-        <v>24.764890000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4">
-        <v>20</v>
-      </c>
-      <c r="C47" s="4">
-        <v>31.661442000000001</v>
-      </c>
-      <c r="D47" s="4">
-        <v>31.347961999999999</v>
-      </c>
-      <c r="E47" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="F47" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="G47" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="H47" s="4">
-        <v>31.974921999999999</v>
-      </c>
-      <c r="I47" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="J47" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="K47" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="D48" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="E48" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="F48" s="4">
-        <v>34.169279000000003</v>
-      </c>
-      <c r="G48" s="4">
-        <v>34.796238000000002</v>
-      </c>
-      <c r="H48" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="I48" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="J48" s="4">
-        <v>34.482759000000001</v>
-      </c>
-      <c r="K48" s="4">
-        <v>31.034483000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>40.438870999999999</v>
-      </c>
-      <c r="D49" s="4">
-        <v>39.184953</v>
-      </c>
-      <c r="E49" s="4">
-        <v>40.438870999999999</v>
-      </c>
-      <c r="F49" s="4">
-        <v>36.990595999999996</v>
-      </c>
-      <c r="G49" s="4">
-        <v>36.677115999999998</v>
-      </c>
-      <c r="H49" s="4">
-        <v>38.244514000000002</v>
-      </c>
-      <c r="I49" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="J49" s="4">
-        <v>38.871473000000002</v>
-      </c>
-      <c r="K49" s="4">
-        <v>30.721003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="3">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4">
-        <v>44.200626999999997</v>
-      </c>
-      <c r="D50" s="4">
-        <v>45.768025000000002</v>
-      </c>
-      <c r="E50" s="4">
-        <v>46.394984000000001</v>
-      </c>
-      <c r="F50" s="4">
-        <v>45.141066000000002</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45.454545000000003</v>
-      </c>
-      <c r="H50" s="4">
-        <v>54.545454999999997</v>
-      </c>
-      <c r="I50" s="4">
-        <v>55.172414000000003</v>
-      </c>
-      <c r="J50" s="4">
-        <v>39.184953</v>
-      </c>
-      <c r="K50" s="4">
-        <v>36.990595999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>4</v>
-      </c>
-      <c r="G52" s="2">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2">
-        <v>6</v>
-      </c>
-      <c r="I52" s="2">
-        <v>7</v>
-      </c>
-      <c r="J52" s="2">
-        <v>8</v>
-      </c>
-      <c r="K52" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="3">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="D53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="E53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="F53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="G53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="H53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="I53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="J53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="K53" s="4">
-        <v>19.122257000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="D54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="E54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="F54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="G54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="H54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="I54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="J54" s="4">
-        <v>19.122257000000001</v>
-      </c>
-      <c r="K54" s="4">
-        <v>18.808776999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="4">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="D55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="E55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="F55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="I55" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="J55" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="K55" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="3">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4">
-        <v>21.316614000000001</v>
-      </c>
-      <c r="D56" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="E56" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="F56" s="4">
-        <v>21.316614000000001</v>
-      </c>
-      <c r="G56" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="H56" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I56" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="J56" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="K56" s="4">
-        <v>20.689654999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="D57" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="E57" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="F57" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="G57" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="H57" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="I57" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="J57" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="K57" s="4">
-        <v>25.07837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="3">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="D58" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="E58" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="F58" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="G58" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="H58" s="4">
-        <v>31.347961999999999</v>
-      </c>
-      <c r="I58" s="4">
-        <v>31.347961999999999</v>
-      </c>
-      <c r="J58" s="4">
-        <v>33.542319999999997</v>
-      </c>
-      <c r="K58" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="3">
-        <v>6</v>
-      </c>
-      <c r="B59" s="4">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4">
-        <v>35.423197000000002</v>
-      </c>
-      <c r="D59" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="E59" s="4">
-        <v>36.363636</v>
-      </c>
-      <c r="F59" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="G59" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="H59" s="4">
-        <v>34.796238000000002</v>
-      </c>
-      <c r="I59" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="J59" s="4">
-        <v>40.752350999999997</v>
-      </c>
-      <c r="K59" s="4">
-        <v>29.780563999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="3">
-        <v>7</v>
-      </c>
-      <c r="B60" s="4">
-        <v>50</v>
-      </c>
-      <c r="C60" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="D60" s="4">
-        <v>40.438870999999999</v>
-      </c>
-      <c r="E60" s="4">
-        <v>37.931033999999997</v>
-      </c>
-      <c r="F60" s="4">
-        <v>62.382444999999997</v>
-      </c>
-      <c r="G60" s="4">
-        <v>59.874608000000002</v>
-      </c>
-      <c r="H60" s="4">
-        <v>56.426332000000002</v>
-      </c>
-      <c r="I60" s="4">
-        <v>39.811912</v>
-      </c>
-      <c r="J60" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="K60" s="4">
-        <v>65.203761999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4</v>
-      </c>
-      <c r="G62" s="2">
-        <v>5</v>
-      </c>
-      <c r="H62" s="2">
-        <v>6</v>
-      </c>
-      <c r="I62" s="2">
-        <v>7</v>
-      </c>
-      <c r="J62" s="2">
-        <v>8</v>
-      </c>
-      <c r="K62" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="3">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="D63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="E63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="F63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="G63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="H63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="I63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="J63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="K63" s="4">
-        <v>20.062695999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="D64" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="E64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="F64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H64" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="I64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="J64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="K64" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="3">
-        <v>2</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="D65" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="E65" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="F65" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="G65" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="H65" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="I65" s="4">
-        <v>21.943574000000002</v>
-      </c>
-      <c r="J65" s="4">
-        <v>21.630094</v>
-      </c>
-      <c r="K65" s="4">
-        <v>22.257052999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="3">
-        <v>3</v>
-      </c>
-      <c r="B66" s="4">
-        <v>10</v>
-      </c>
-      <c r="C66" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="D66" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="E66" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="F66" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="G66" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="H66" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I66" s="4">
-        <v>26.645768</v>
-      </c>
-      <c r="J66" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="K66" s="4">
-        <v>22.884012999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="3">
-        <v>4</v>
-      </c>
-      <c r="B67" s="4">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4">
-        <v>26.645768</v>
-      </c>
-      <c r="D67" s="4">
-        <v>25.705328999999999</v>
-      </c>
-      <c r="E67" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="F67" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="G67" s="4">
-        <v>24.451411</v>
-      </c>
-      <c r="H67" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="I67" s="4">
-        <v>31.974921999999999</v>
-      </c>
-      <c r="J67" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="K67" s="4">
-        <v>24.137930999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="3">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4">
-        <v>30</v>
-      </c>
-      <c r="C68" s="4">
-        <v>30.407523999999999</v>
-      </c>
-      <c r="D68" s="4">
-        <v>33.542319999999997</v>
-      </c>
-      <c r="E68" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="F68" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="G68" s="4">
-        <v>31.661442000000001</v>
-      </c>
-      <c r="H68" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="I68" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="J68" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="K68" s="4">
-        <v>29.780563999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="3">
-        <v>6</v>
-      </c>
-      <c r="B69" s="4">
-        <v>40</v>
-      </c>
-      <c r="C69" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="D69" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="E69" s="4">
-        <v>37.617555000000003</v>
-      </c>
-      <c r="F69" s="4">
-        <v>34.796238000000002</v>
-      </c>
-      <c r="G69" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="H69" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="I69" s="4">
-        <v>39.498432999999999</v>
-      </c>
-      <c r="J69" s="4">
-        <v>32.915360999999997</v>
-      </c>
-      <c r="K69" s="4">
-        <v>30.407523999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="3">
-        <v>7</v>
-      </c>
-      <c r="B70" s="4">
-        <v>50</v>
-      </c>
-      <c r="C70" s="4">
-        <v>41.379309999999997</v>
-      </c>
-      <c r="D70" s="4">
-        <v>52.037618000000002</v>
-      </c>
-      <c r="E70" s="4">
-        <v>42.633229</v>
-      </c>
-      <c r="F70" s="4">
-        <v>53.605015999999999</v>
-      </c>
-      <c r="G70" s="4">
-        <v>60.815047</v>
-      </c>
-      <c r="H70" s="4">
-        <v>58.620690000000003</v>
-      </c>
-      <c r="I70" s="4">
-        <v>62.695925000000003</v>
-      </c>
-      <c r="J70" s="4">
-        <v>60.815047</v>
-      </c>
-      <c r="K70" s="4">
-        <v>61.128526999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>4</v>
-      </c>
-      <c r="G72" s="2">
-        <v>5</v>
-      </c>
-      <c r="H72" s="2">
-        <v>6</v>
-      </c>
-      <c r="I72" s="2">
-        <v>7</v>
-      </c>
-      <c r="J72" s="2">
-        <v>8</v>
-      </c>
-      <c r="K72" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="3">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="D73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="E73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="F73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="G73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="H73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="I73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="J73" s="4">
-        <v>19.435737</v>
-      </c>
-      <c r="K73" s="4">
-        <v>19.435737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4">
-        <v>2</v>
-      </c>
-      <c r="C74" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="D74" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="E74" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="F74" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G74" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H74" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="I74" s="4">
-        <v>19.749216000000001</v>
-      </c>
-      <c r="J74" s="4">
-        <v>19.749216000000001</v>
-      </c>
-      <c r="K74" s="4">
-        <v>19.749216000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="3">
-        <v>2</v>
-      </c>
-      <c r="B75" s="4">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="D75" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="E75" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="F75" s="4">
-        <v>19.749216000000001</v>
-      </c>
-      <c r="G75" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H75" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="I75" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="J75" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="K75" s="4">
-        <v>19.749216000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="3">
-        <v>3</v>
-      </c>
-      <c r="B76" s="4">
-        <v>10</v>
-      </c>
-      <c r="C76" s="4">
-        <v>23.510971999999999</v>
-      </c>
-      <c r="D76" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="E76" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="F76" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="G76" s="4">
-        <v>23.824451</v>
-      </c>
-      <c r="H76" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="I76" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="J76" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="K76" s="4">
-        <v>22.570533000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="3">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4">
-        <v>20</v>
-      </c>
-      <c r="C77" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="D77" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="E77" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="F77" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="G77" s="4">
-        <v>25.07837</v>
-      </c>
-      <c r="H77" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="I77" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="J77" s="4">
-        <v>26.959247999999999</v>
-      </c>
-      <c r="K77" s="4">
-        <v>24.764890000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="3">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4">
-        <v>30</v>
-      </c>
-      <c r="C78" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="D78" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="E78" s="4">
-        <v>26.018809000000001</v>
-      </c>
-      <c r="F78" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="G78" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="H78" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="I78" s="4">
-        <v>27.586207000000002</v>
-      </c>
-      <c r="J78" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="K78" s="4">
-        <v>25.07837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="3">
-        <v>6</v>
-      </c>
-      <c r="B79" s="4">
-        <v>40</v>
-      </c>
-      <c r="C79" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="D79" s="4">
-        <v>37.304074999999997</v>
-      </c>
-      <c r="E79" s="4">
-        <v>38.244514000000002</v>
-      </c>
-      <c r="F79" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="G79" s="4">
-        <v>33.542319999999997</v>
-      </c>
-      <c r="H79" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="I79" s="4">
-        <v>34.482759000000001</v>
-      </c>
-      <c r="J79" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="K79" s="4">
-        <v>29.467085000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="3">
-        <v>7</v>
-      </c>
-      <c r="B80" s="4">
-        <v>50</v>
-      </c>
-      <c r="C80" s="4">
-        <v>56.426332000000002</v>
-      </c>
-      <c r="D80" s="4">
-        <v>41.692790000000002</v>
-      </c>
-      <c r="E80" s="4">
-        <v>41.692790000000002</v>
-      </c>
-      <c r="F80" s="4">
-        <v>57.993729999999999</v>
-      </c>
-      <c r="G80" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="H80" s="4">
-        <v>37.931033999999997</v>
-      </c>
-      <c r="I80" s="4">
-        <v>65.517240999999999</v>
-      </c>
-      <c r="J80" s="4">
-        <v>59.874608000000002</v>
-      </c>
-      <c r="K80" s="4">
-        <v>30.094044</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>5</v>
-      </c>
-      <c r="H82" s="2">
-        <v>6</v>
-      </c>
-      <c r="I82" s="2">
-        <v>7</v>
-      </c>
-      <c r="J82" s="2">
-        <v>8</v>
-      </c>
-      <c r="K82" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="3">
-        <v>0</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="D83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="E83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="F83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="G83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="H83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="I83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="J83" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="K83" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="4">
-        <v>2</v>
-      </c>
-      <c r="C84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="D84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="E84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="F84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="G84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="H84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="I84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="J84" s="4">
-        <v>28.840125</v>
-      </c>
-      <c r="K84" s="4">
-        <v>28.840125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3">
-        <v>2</v>
-      </c>
-      <c r="B85" s="4">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="D85" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="E85" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="F85" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="G85" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="H85" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="I85" s="4">
-        <v>29.467085000000001</v>
-      </c>
-      <c r="J85" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="K85" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4">
-        <v>10</v>
-      </c>
-      <c r="C86" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="D86" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="E86" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="F86" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="G86" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="H86" s="4">
-        <v>29.780563999999998</v>
-      </c>
-      <c r="I86" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="J86" s="4">
-        <v>30.721003</v>
-      </c>
-      <c r="K86" s="4">
-        <v>28.526646</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="3">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4">
-        <v>20</v>
-      </c>
-      <c r="C87" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="D87" s="4">
-        <v>34.482759000000001</v>
-      </c>
-      <c r="E87" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="F87" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="G87" s="4">
-        <v>31.974921999999999</v>
-      </c>
-      <c r="H87" s="4">
-        <v>31.347961999999999</v>
-      </c>
-      <c r="I87" s="4">
-        <v>33.228839999999998</v>
-      </c>
-      <c r="J87" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="K87" s="4">
-        <v>31.034483000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="3">
-        <v>5</v>
-      </c>
-      <c r="B88" s="4">
-        <v>30</v>
-      </c>
-      <c r="C88" s="4">
-        <v>36.050156999999999</v>
-      </c>
-      <c r="D88" s="4">
-        <v>33.542319999999997</v>
-      </c>
-      <c r="E88" s="4">
-        <v>33.542319999999997</v>
-      </c>
-      <c r="F88" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="G88" s="4">
-        <v>32.601880999999999</v>
-      </c>
-      <c r="H88" s="4">
-        <v>34.482759000000001</v>
-      </c>
-      <c r="I88" s="4">
-        <v>37.931033999999997</v>
-      </c>
-      <c r="J88" s="4">
-        <v>35.736677</v>
-      </c>
-      <c r="K88" s="4">
-        <v>30.407523999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="4">
-        <v>40</v>
-      </c>
-      <c r="C89" s="4">
-        <v>43.573667999999998</v>
-      </c>
-      <c r="D89" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="E89" s="4">
-        <v>43.573667999999998</v>
-      </c>
-      <c r="F89" s="4">
-        <v>41.692790000000002</v>
-      </c>
-      <c r="G89" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="H89" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>43.573667999999998</v>
-      </c>
-      <c r="J89" s="4">
-        <v>43.573667999999998</v>
-      </c>
-      <c r="K89" s="4">
-        <v>36.677115999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3">
-        <v>7</v>
-      </c>
-      <c r="B90" s="4">
-        <v>50</v>
-      </c>
-      <c r="C90" s="4">
-        <v>47.962381999999998</v>
-      </c>
-      <c r="D90" s="4">
-        <v>42.946708000000001</v>
-      </c>
-      <c r="E90" s="4">
-        <v>59.561129000000001</v>
-      </c>
-      <c r="F90" s="4">
-        <v>42.319749000000002</v>
-      </c>
-      <c r="G90" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="H90" s="4">
-        <v>41.692790000000002</v>
-      </c>
-      <c r="I90" s="4">
-        <v>42.006270000000001</v>
-      </c>
-      <c r="J90" s="4">
-        <v>43.260187999999999</v>
-      </c>
-      <c r="K90" s="4">
-        <v>37.931033999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
-      </c>
-      <c r="F92" s="2">
-        <v>4</v>
-      </c>
-      <c r="G92" s="2">
-        <v>5</v>
-      </c>
-      <c r="H92" s="2">
-        <v>6</v>
-      </c>
-      <c r="I92" s="2">
-        <v>7</v>
-      </c>
-      <c r="J92" s="2">
-        <v>8</v>
-      </c>
-      <c r="K92" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="3">
-        <v>0</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="D93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="E93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="F93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="G93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="H93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="I93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="J93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-      <c r="K93" s="4">
-        <v>20.062695999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="3">
-        <v>1</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2</v>
-      </c>
-      <c r="C94" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="D94" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="E94" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="F94" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="G94" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="H94" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="I94" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="J94" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="K94" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="3">
-        <v>2</v>
-      </c>
-      <c r="B95" s="4">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="D95" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="E95" s="4">
-        <v>20.689654999999998</v>
-      </c>
-      <c r="F95" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="G95" s="4">
-        <v>20.376176000000001</v>
-      </c>
-      <c r="H95" s="4">
-        <v>21.630094</v>
-      </c>
-      <c r="I95" s="4">
-        <v>21.003135</v>
-      </c>
-      <c r="J95" s="4">
-        <v>22.257052999999999</v>
-      </c>
-      <c r="K95" s="4">
-        <v>20.376176000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="3">
-        <v>3</v>
-      </c>
-      <c r="B96" s="4">
-        <v>10</v>
-      </c>
-      <c r="C96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="D96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="E96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="F96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="G96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-      <c r="H96" s="4">
-        <v>22.884012999999999</v>
-      </c>
-      <c r="I96" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="J96" s="4">
-        <v>23.197492</v>
-      </c>
-      <c r="K96" s="4">
-        <v>22.570533000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="3">
-        <v>4</v>
-      </c>
-      <c r="B97" s="4">
-        <v>20</v>
-      </c>
-      <c r="C97" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="D97" s="4">
-        <v>27.272727</v>
-      </c>
-      <c r="E97" s="4">
-        <v>28.526646</v>
-      </c>
-      <c r="F97" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="G97" s="4">
-        <v>27.899687</v>
-      </c>
-      <c r="H97" s="4">
-        <v>28.213166000000001</v>
-      </c>
-      <c r="I97" s="4">
-        <v>34.482759000000001</v>
-      </c>
-      <c r="J97" s="4">
-        <v>31.974921999999999</v>
-      </c>
-      <c r="K97" s="4">
-        <v>26.959247999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4">
-        <v>30</v>
-      </c>
-      <c r="C98" s="4">
-        <v>31.034483000000002</v>
-      </c>
-      <c r="D98" s="4">
-        <v>32.288401</v>
-      </c>
-      <c r="E98" s="4">
-        <v>24.137930999999998</v>
-      </c>
-      <c r="F98" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="G98" s="4">
-        <v>24.764890000000001</v>
-      </c>
-      <c r="H98" s="4">
-        <v>29.153604999999999</v>
-      </c>
-      <c r="I98" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="J98" s="4">
-        <v>30.094044</v>
-      </c>
-      <c r="K98" s="4">
-        <v>24.764890000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="3">
-        <v>6</v>
-      </c>
-      <c r="B99" s="4">
-        <v>40</v>
-      </c>
-      <c r="C99" s="4">
-        <v>36.363636</v>
-      </c>
-      <c r="D99" s="4">
-        <v>40.752350999999997</v>
-      </c>
-      <c r="E99" s="4">
-        <v>40.752350999999997</v>
-      </c>
-      <c r="F99" s="4">
-        <v>38.557994000000001</v>
-      </c>
-      <c r="G99" s="4">
-        <v>39.811912</v>
-      </c>
-      <c r="H99" s="4">
-        <v>36.363636</v>
-      </c>
-      <c r="I99" s="4">
-        <v>35.109718000000001</v>
-      </c>
-      <c r="J99" s="4">
-        <v>33.855798999999998</v>
-      </c>
-      <c r="K99" s="4">
-        <v>30.721003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="3">
-        <v>7</v>
-      </c>
-      <c r="B100" s="4">
-        <v>50</v>
-      </c>
-      <c r="C100" s="4">
-        <v>55.485892999999997</v>
-      </c>
-      <c r="D100" s="4">
-        <v>52.664577000000001</v>
-      </c>
-      <c r="E100" s="4">
-        <v>52.664577000000001</v>
-      </c>
-      <c r="F100" s="4">
-        <v>40.125391999999998</v>
-      </c>
-      <c r="G100" s="4">
-        <v>40.125391999999998</v>
-      </c>
-      <c r="H100" s="4">
-        <v>62.695925000000003</v>
-      </c>
-      <c r="I100" s="4">
-        <v>55.485892999999997</v>
-      </c>
-      <c r="J100" s="4">
-        <v>55.172414000000003</v>
-      </c>
-      <c r="K100" s="4">
-        <v>65.203761999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T10">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
-      <formula>$U3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:T3">
-    <cfRule type="top10" dxfId="8" priority="10" bottom="1" rank="1"/>
-    <cfRule type="expression" priority="11">
-      <formula>"min"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:T10">
-    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:T5">
-    <cfRule type="top10" dxfId="6" priority="8" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:T6">
-    <cfRule type="top10" dxfId="5" priority="7" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7:T7">
-    <cfRule type="top10" dxfId="4" priority="6" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:T8">
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:T9">
-    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:T10">
-    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12:AD12">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
-    <cfRule type="top10" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/weatherrankfilter.xlsx
+++ b/weatherrankfilter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3E0A3-C3CE-4D68-9F07-E6438DEB681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6568BC-DE7B-4FA1-9E76-CEBB16FB7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="7" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherDT%10" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="ace svm 25%" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
     <sheet name="weatherSVM%15" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="weatherDT%15" sheetId="4" state="hidden" r:id="rId10"/>
-    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId11"/>
-    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId12"/>
+    <sheet name="weatherDT%15" sheetId="4" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId11"/>
+    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="72">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -176,12 +177,307 @@
   <si>
     <t xml:space="preserve">% error reduction achieved </t>
   </si>
+  <si>
+    <t>SVM with L1PCA dist based Training Data Curation</t>
+  </si>
+  <si>
+    <t>SVM on Original File without Data Curation</t>
+  </si>
+  <si>
+    <t>PREDICTED</t>
+  </si>
+  <si>
+    <t>TPR=tp/(tp+fn)</t>
+  </si>
+  <si>
+    <t>Recall, power</t>
+  </si>
+  <si>
+    <t>FPR=fp/(fp+tn)</t>
+  </si>
+  <si>
+    <t>pr of false alarm, type 1err</t>
+  </si>
+  <si>
+    <t>TNR=tn/(tn+fp)</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>FNR=fn/(fn+tp)</t>
+  </si>
+  <si>
+    <t>Miss rate, type II err</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hamming Loss   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        = 0.24  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  = 0.228</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          =0.746</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Power/ False Negative Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   = 0.253</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ 
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                  
+= 0.218</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1-Probability of False Alarm/   True Negative Rate  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     = 0.778</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prob of False Alarm/ 
+False Positive Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   
+= 0.253</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Power/ True Positive Rate(high)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        
+ = 0.771</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-Probability of False Alarm/   
+True Negative Rate  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>low</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     = 0.781</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +509,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +601,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -544,11 +870,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -620,6 +976,91 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,7 +1088,30 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,7 +2093,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -5509,11 +5973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95622268-A8C7-446E-8932-1CC7623DB454}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -9390,6 +9854,407 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D838B1-1E37-4D0B-9B15-37FBBE2F12F9}">
+  <dimension ref="B1:L23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="3" width="8.77734375" style="48"/>
+    <col min="4" max="4" width="30" style="48" customWidth="1"/>
+    <col min="5" max="5" width="26" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="48" customWidth="1"/>
+    <col min="7" max="9" width="8.77734375" style="48"/>
+    <col min="10" max="10" width="27" style="48" customWidth="1"/>
+    <col min="11" max="11" width="26" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="50"/>
+      <c r="J2" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
+      <c r="D3" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="51"/>
+      <c r="J3" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="92"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1">
+      <c r="D4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="J4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
+      <c r="B5" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="56">
+        <f>C14</f>
+        <v>122.7</v>
+      </c>
+      <c r="E5" s="57">
+        <f>D14</f>
+        <v>34.4</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="56">
+        <f>C20</f>
+        <v>122.2</v>
+      </c>
+      <c r="K5" s="57">
+        <f>D20</f>
+        <v>34.9</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1">
+      <c r="B6" s="86"/>
+      <c r="C6" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="56">
+        <f>C15</f>
+        <v>37</v>
+      </c>
+      <c r="E6" s="57">
+        <f>D15</f>
+        <v>124.9</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="56">
+        <f>C21</f>
+        <v>41.1</v>
+      </c>
+      <c r="K6" s="57">
+        <f>D21</f>
+        <v>120.8</v>
+      </c>
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.8">
+      <c r="D7" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="J7" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
+      <c r="D8" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="J8" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="G10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="G11" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1">
+      <c r="K12" s="48">
+        <f>(J17-I17)/J17</f>
+        <v>6.0526315789474178E-2</v>
+      </c>
+      <c r="L12" s="48">
+        <f>K12*100</f>
+        <v>6.0526315789474179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>1</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="66">
+        <f>E6/(E6+D6)</f>
+        <v>0.77146386658431132</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1">
+      <c r="B14" s="48">
+        <v>0</v>
+      </c>
+      <c r="C14" s="48">
+        <v>122.7</v>
+      </c>
+      <c r="D14" s="48">
+        <v>34.4</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="57">
+        <f>E5/(E5+D5)</f>
+        <v>0.218968809675366</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48">
+        <v>37</v>
+      </c>
+      <c r="D15" s="48">
+        <v>124.9</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="57">
+        <f>D5/(D5+E5)</f>
+        <v>0.78103119032463408</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1">
+      <c r="B16" s="48">
+        <v>2</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.77146400000000004</v>
+      </c>
+      <c r="D16" s="48">
+        <v>0.22853599999999999</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="70">
+        <f>D6/(D6+E6)</f>
+        <v>0.22853613341568868</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="71">
+        <f>(D5+E6)/(D5+E5+E6+D6)</f>
+        <v>0.77617554858934179</v>
+      </c>
+      <c r="J16" s="72">
+        <f>(J5+K6)/SUM(J5:K6)</f>
+        <v>0.76175548589341691</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="48">
+        <v>3</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0.78103100000000003</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0.218969</v>
+      </c>
+      <c r="I17" s="48">
+        <f>1-I16</f>
+        <v>0.22382445141065821</v>
+      </c>
+      <c r="J17" s="48">
+        <f>1-J16</f>
+        <v>0.23824451410658309</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickBot="1"/>
+    <row r="19" spans="2:10">
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="D19" s="48">
+        <v>1</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="66">
+        <f>K6/(J6+K6)</f>
+        <v>0.74613959234095117</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="48">
+        <v>0</v>
+      </c>
+      <c r="C20" s="48">
+        <v>122.2</v>
+      </c>
+      <c r="D20" s="48">
+        <v>34.9</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="57">
+        <f>K5/(K5+J5)</f>
+        <v>0.22215149586250796</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="48">
+        <v>1</v>
+      </c>
+      <c r="C21" s="48">
+        <v>41.1</v>
+      </c>
+      <c r="D21" s="48">
+        <v>120.8</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="57">
+        <f>J5/(J5+K5)</f>
+        <v>0.77784850413749207</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1">
+      <c r="B22" s="48">
+        <v>2</v>
+      </c>
+      <c r="C22" s="48">
+        <v>0.74614000000000003</v>
+      </c>
+      <c r="D22" s="48">
+        <v>0.25385999999999997</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="70">
+        <f>J6/(J6+K6)</f>
+        <v>0.25386040765904877</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="48">
+        <v>3</v>
+      </c>
+      <c r="C23" s="48">
+        <v>0.77784900000000001</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0.22215099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765A0386-4415-4EA4-8432-46269E7FD37D}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -9397,7 +10262,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -13273,7 +14138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E44AA6-5C29-4F1A-90A3-F2DA20FD2287}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -13281,7 +14146,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -17165,7 +18030,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -21049,7 +21914,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -21812,7 +22677,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -22177,21 +23042,21 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="77"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -22628,21 +23493,21 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="9" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="77"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -23077,25 +23942,25 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -23117,10 +23982,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="52"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -23146,11 +24011,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="82">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="54"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -23369,7 +24234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>1</v>
@@ -23381,7 +24246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -23395,12 +24260,12 @@
         <v>24.137930999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -23412,7 +24277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -23426,12 +24291,12 @@
         <v>24.764890000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>1</v>
@@ -23442,8 +24307,11 @@
       <c r="D23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -23457,12 +24325,12 @@
         <v>24.137930999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -23474,7 +24342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -23488,12 +24356,12 @@
         <v>27.272727</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>1</v>
@@ -23505,7 +24373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -23534,14 +24402,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC28182-3585-4CB5-99DC-CCC4F6BF56A7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23551,10 +24419,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -23569,13 +24437,13 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="56">
+      <c r="B4" s="47">
         <v>21.7868338</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="47">
         <v>23.824451400000001</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="47">
         <v>8.5526317722472331</v>
       </c>
     </row>
@@ -23586,8 +24454,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
@@ -23617,7 +24485,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
